--- a/data/trans_camb/P38C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,89</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; -1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,59; 1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; -3,16</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,25%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,1; -2,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,98; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,25; -5,3</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,31; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; -1,47</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,32%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 5,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; -3,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,01; -2,05</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; -0,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 2,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; -0,01</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,89%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; -0,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 2,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; -0,01</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,78; 0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 2,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,92; 0,47</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,51; 0,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 3,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,7; 0,5</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 2,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 3,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 2,18</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 3,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 3,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 2,4</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 1,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 0,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 0,43</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,91%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 1,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 0,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,44</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; -0,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 0,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; -0,06</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; -0,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; -0,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-6,9</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,31; -1,53</t>
+          <t>-17,02; 2,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 1,06</t>
+          <t>-13,67; 3,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -3,16</t>
+          <t>-13,12; -0,27</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,38%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>-6,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,25%</t>
+          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -2,89</t>
+          <t>-29,41; 5,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 1,74</t>
+          <t>-20,15; 5,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -5,3</t>
+          <t>-20,93; -0,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,27</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>-9,23</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 3,51</t>
+          <t>-9,96; 4,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -3,23</t>
+          <t>-38,91; -3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -1,47</t>
+          <t>-24,48; -2,09</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>-19,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-12,27%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 5,38</t>
+          <t>-14,14; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -3,96</t>
+          <t>-46,92; -4,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,01; -2,05</t>
+          <t>-32,36; -2,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-2,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -0,66</t>
+          <t>-8,74; 0,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 2,08</t>
+          <t>-4,68; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -0,01</t>
+          <t>-5,14; 0,94</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-2,79%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -0,85</t>
+          <t>-10,6; 0,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,51</t>
+          <t>-5,33; 3,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -0,01</t>
+          <t>-6,1; 1,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-24,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-13,67</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 0,06</t>
+          <t>-61,35; 0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,93</t>
+          <t>-2,65; 4,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 0,47</t>
+          <t>-42,92; 0,84</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>-28,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>-15,4%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 0,06</t>
+          <t>-69,07; 0,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,31</t>
+          <t>-2,89; 4,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 0,5</t>
+          <t>-47,57; 0,91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,96</t>
+          <t>-3,72; 3,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,47</t>
+          <t>-2,1; 3,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,18</t>
+          <t>-2,12; 2,39</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,31</t>
+          <t>-4,02; 3,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,79</t>
+          <t>-2,23; 3,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,4</t>
+          <t>-2,25; 2,63</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,26</t>
+          <t>-4,5; 0,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,73</t>
+          <t>-1,5; 3,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,43</t>
+          <t>-2,09; 1,72</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,3</t>
+          <t>-4,58; 0,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,74</t>
+          <t>-1,52; 3,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,44</t>
+          <t>-2,13; 1,78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -0,33</t>
+          <t>-0,91; 3,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,86</t>
+          <t>-3,5; 0,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,06</t>
+          <t>-1,92; 1,08</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -1201,29 +1201,126 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -0,35</t>
+          <t>-0,93; 3,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,99</t>
+          <t>-3,55; 0,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,07</t>
+          <t>-1,94; 1,12</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-3,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; -0,38</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 1,31</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; -0,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-4,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-33,1; -0,46</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 1,51</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; -0,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>

--- a/data/trans_camb/P38C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 2,98</t>
+          <t>-17,97; 1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 3,59</t>
+          <t>-12,93; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -0,27</t>
+          <t>-13,48; -0,45</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 5,43</t>
+          <t>-30,71; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 5,67</t>
+          <t>-19,06; 6,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -0,4</t>
+          <t>-21,64; -0,67</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,63</t>
+          <t>-10,2; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -3,71</t>
+          <t>-40,47; -3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -2,09</t>
+          <t>-24,59; -2,38</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 6,9</t>
+          <t>-14,32; 5,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,92; -4,53</t>
+          <t>-50,84; -4,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; -2,82</t>
+          <t>-32,83; -3,23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 0,42</t>
+          <t>-9,06; 0,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,82</t>
+          <t>-5,11; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,94</t>
+          <t>-5,29; 0,84</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,52</t>
+          <t>-10,92; 0,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,41</t>
+          <t>-5,83; 3,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,11</t>
+          <t>-6,25; 1,04</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 0,24</t>
+          <t>-60,16; 0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,01</t>
+          <t>-2,77; 3,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 0,84</t>
+          <t>-43,68; 0,7</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 0,27</t>
+          <t>-68,77; 0,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,51</t>
+          <t>-3,07; 4,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 0,91</t>
+          <t>-49,52; 0,75</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,21</t>
+          <t>-3,63; 3,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,6</t>
+          <t>-2,35; 3,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,39</t>
+          <t>-1,95; 2,5</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,54</t>
+          <t>-3,85; 3,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,95</t>
+          <t>-2,47; 4,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,63</t>
+          <t>-2,08; 2,74</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,66</t>
+          <t>-4,41; 0,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,07</t>
+          <t>-1,65; 2,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,72</t>
+          <t>-2,21; 1,54</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,68</t>
+          <t>-4,5; 0,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,19</t>
+          <t>-1,68; 3,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,78</t>
+          <t>-2,26; 1,59</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,34</t>
+          <t>-0,9; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,95</t>
+          <t>-3,42; 1,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,08</t>
+          <t>-2,01; 1,15</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,51</t>
+          <t>-0,91; 3,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,96</t>
+          <t>-3,46; 1,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,12</t>
+          <t>-2,04; 1,18</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -0,38</t>
+          <t>-24,42; -0,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,31</t>
+          <t>-6,47; 1,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -0,12</t>
+          <t>-13,93; 0,07</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -0,46</t>
+          <t>-29,91; -0,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,51</t>
+          <t>-7,37; 1,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,16</t>
+          <t>-16,48; 0,09</t>
         </is>
       </c>
     </row>
